--- a/misc/WordCloudWords.xlsx
+++ b/misc/WordCloudWords.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fisch\Documents\VS Code\Abigail_ScienceFair_2024-25_082224\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA88CF2-5DF9-4FB0-942B-C1B0633BBD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3157B68D-D137-46FC-B81C-B3DC672FA5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32820" yWindow="-3677" windowWidth="29443" windowHeight="17888" xr2:uid="{B7A4BE49-238B-443F-993B-F9700EC916FE}"/>
+    <workbookView xWindow="32811" yWindow="-3780" windowWidth="44092" windowHeight="18000" xr2:uid="{B7A4BE49-238B-443F-993B-F9700EC916FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="data">Sheet1!$R$1:$S$200</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$H$1:$O$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="400">
   <si>
     <t xml:space="preserve">Word: sky              </t>
   </si>
@@ -1619,33 +1620,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O200"/>
+  <dimension ref="A1:Y200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="21.40625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.36328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.953125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.86328125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.86328125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="4.1796875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.86328125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.1796875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.86328125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="21.40625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="4.36328125" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6796875" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.953125" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.86328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.86328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.81640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.86328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.81640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.86328125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="8.7265625" style="1"/>
+    <col min="18" max="18" width="6.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.86328125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.81640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.86328125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.81640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.86328125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.81640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="16.86328125" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1663,32 +1673,56 @@
       <c r="F1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="1">
         <v>101</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="1">
         <v>151</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R1" s="1">
+        <v>122</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="T1" s="1">
+        <v>92</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="V1" s="1">
+        <v>113</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="X1" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1706,32 +1740,56 @@
       <c r="F2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>52</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>102</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>152</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R2" s="1">
+        <v>198</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="T2" s="1">
+        <v>117</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="V2" s="1">
+        <v>153</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="X2" s="1">
+        <v>159</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1749,32 +1807,56 @@
       <c r="F3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>53</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>103</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>153</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R3" s="1">
+        <v>73</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="T3" s="1">
+        <v>42</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="V3" s="1">
+        <v>70</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="X3" s="1">
+        <v>55</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1792,32 +1874,56 @@
       <c r="F4" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>54</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>104</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>154</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R4" s="1">
+        <v>131</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="T4" s="1">
+        <v>93</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="V4" s="1">
+        <v>49</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="X4" s="1">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1835,32 +1941,56 @@
       <c r="F5" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>5</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>55</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>105</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>155</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R5" s="1">
+        <v>188</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="T5" s="1">
+        <v>77</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="V5" s="1">
+        <v>46</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="X5" s="1">
+        <v>71</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1878,32 +2008,56 @@
       <c r="F6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>56</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>106</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>156</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R6" s="1">
+        <v>13</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="T6" s="1">
+        <v>169</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="V6" s="1">
+        <v>151</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="X6" s="1">
+        <v>167</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1921,32 +2075,56 @@
       <c r="F7" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>7</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>57</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>107</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>157</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R7" s="1">
+        <v>199</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="T7" s="1">
+        <v>40</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="V7" s="1">
+        <v>118</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="X7" s="1">
+        <v>115</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1964,32 +2142,56 @@
       <c r="F8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>8</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>58</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>108</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>158</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R8" s="1">
+        <v>150</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="T8" s="1">
+        <v>119</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="V8" s="1">
+        <v>191</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2007,32 +2209,56 @@
       <c r="F9" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>9</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>59</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>109</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>159</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R9" s="1">
+        <v>31</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="T9" s="1">
+        <v>120</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="V9" s="1">
+        <v>190</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="X9" s="1">
+        <v>129</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2050,32 +2276,56 @@
       <c r="F10" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>60</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>110</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>160</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R10" s="1">
+        <v>53</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="T10" s="1">
+        <v>17</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="V10" s="1">
+        <v>30</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="X10" s="1">
+        <v>97</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2093,32 +2343,56 @@
       <c r="F11" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>61</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>111</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <v>161</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R11" s="1">
+        <v>34</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="T11" s="1">
+        <v>152</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="V11" s="1">
+        <v>72</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="X11" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2136,32 +2410,56 @@
       <c r="F12" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>12</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>62</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>112</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <v>162</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R12" s="1">
+        <v>194</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="T12" s="1">
+        <v>111</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="V12" s="1">
+        <v>18</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="X12" s="1">
+        <v>48</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2179,32 +2477,56 @@
       <c r="F13" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>13</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>63</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>113</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <v>163</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R13" s="1">
+        <v>101</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="T13" s="1">
+        <v>136</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="V13" s="1">
+        <v>88</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="X13" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2222,32 +2544,56 @@
       <c r="F14" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>14</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>64</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>114</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <v>164</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R14" s="1">
+        <v>38</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="T14" s="1">
+        <v>85</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="V14" s="1">
+        <v>25</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="X14" s="1">
+        <v>27</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2265,32 +2611,56 @@
       <c r="F15" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>65</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <v>115</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <v>165</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R15" s="1">
+        <v>125</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T15" s="1">
+        <v>50</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="V15" s="1">
+        <v>36</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="X15" s="1">
+        <v>47</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2308,32 +2678,56 @@
       <c r="F16" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>66</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1">
         <v>116</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="1">
         <v>166</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R16" s="1">
+        <v>141</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="T16" s="1">
+        <v>60</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V16" s="1">
+        <v>9</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="X16" s="1">
+        <v>102</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2351,32 +2745,56 @@
       <c r="F17" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>17</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>67</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <v>117</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="1">
         <v>167</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R17" s="1">
+        <v>76</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="T17" s="1">
+        <v>184</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="V17" s="1">
+        <v>139</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="X17" s="1">
+        <v>86</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2394,32 +2812,56 @@
       <c r="F18" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>18</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>68</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="1">
         <v>118</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="1">
         <v>168</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R18" s="1">
+        <v>178</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="T18" s="1">
+        <v>83</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V18" s="1">
+        <v>143</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="X18" s="1">
+        <v>11</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2437,32 +2879,56 @@
       <c r="F19" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>19</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>69</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="1">
         <v>119</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="1">
         <v>169</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R19" s="1">
+        <v>4</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="T19" s="1">
+        <v>168</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V19" s="1">
+        <v>43</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="X19" s="1">
+        <v>74</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2480,32 +2946,56 @@
       <c r="F20" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>20</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>70</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="1">
         <v>120</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="1">
         <v>170</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R20" s="1">
+        <v>176</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T20" s="1">
+        <v>75</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="V20" s="1">
+        <v>180</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="X20" s="1">
+        <v>144</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2523,32 +3013,56 @@
       <c r="F21" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>21</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>71</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>121</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="1">
         <v>171</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R21" s="1">
+        <v>26</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="T21" s="1">
+        <v>158</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="V21" s="1">
+        <v>8</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="X21" s="1">
+        <v>170</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2566,32 +3080,56 @@
       <c r="F22" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>22</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>72</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1">
         <v>122</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="1">
         <v>172</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R22" s="1">
+        <v>95</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="T22" s="1">
+        <v>91</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="V22" s="1">
+        <v>116</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="X22" s="1">
+        <v>64</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2609,32 +3147,56 @@
       <c r="F23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>23</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>73</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="1">
         <v>123</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="1">
         <v>173</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R23" s="1">
+        <v>20</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="T23" s="1">
+        <v>130</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="V23" s="1">
+        <v>138</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="X23" s="1">
+        <v>146</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2652,32 +3214,56 @@
       <c r="F24" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>24</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>74</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1">
         <v>124</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="1">
         <v>174</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R24" s="1">
+        <v>200</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="T24" s="1">
+        <v>45</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="V24" s="1">
+        <v>182</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="X24" s="1">
+        <v>193</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2695,32 +3281,56 @@
       <c r="F25" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>25</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>75</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="1">
         <v>125</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="1">
         <v>175</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R25" s="1">
+        <v>112</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="T25" s="1">
+        <v>164</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="V25" s="1">
+        <v>5</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="X25" s="1">
+        <v>195</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2738,32 +3348,56 @@
       <c r="F26" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>26</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>76</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="1">
         <v>126</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="1">
         <v>176</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R26" s="1">
+        <v>108</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="T26" s="1">
+        <v>81</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="V26" s="1">
+        <v>69</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="X26" s="1">
+        <v>94</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2781,32 +3415,56 @@
       <c r="F27" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>27</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <v>77</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="1">
         <v>127</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="1">
         <v>177</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R27" s="1">
+        <v>174</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="T27" s="1">
+        <v>21</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V27" s="1">
+        <v>128</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="X27" s="1">
+        <v>68</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2824,32 +3482,56 @@
       <c r="F28" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>28</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <v>78</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="1">
         <v>128</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="1">
         <v>178</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R28" s="1">
+        <v>98</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T28" s="1">
+        <v>107</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="V28" s="1">
+        <v>165</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="X28" s="1">
+        <v>51</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2867,32 +3549,56 @@
       <c r="F29" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>29</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>79</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="1">
         <v>129</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="1">
         <v>179</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R29" s="1">
+        <v>56</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="T29" s="1">
+        <v>181</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="V29" s="1">
+        <v>89</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="X29" s="1">
+        <v>162</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2910,32 +3616,56 @@
       <c r="F30" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>30</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <v>80</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="1">
         <v>130</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="1">
         <v>180</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R30" s="1">
+        <v>160</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="T30" s="1">
+        <v>140</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="V30" s="1">
+        <v>104</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="X30" s="1">
+        <v>197</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2953,32 +3683,56 @@
       <c r="F31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>31</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>81</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1">
         <v>131</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="1">
         <v>181</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R31" s="1">
+        <v>124</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="T31" s="1">
+        <v>41</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="V31" s="1">
+        <v>187</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="X31" s="1">
+        <v>109</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2996,32 +3750,56 @@
       <c r="F32" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>32</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <v>82</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="1">
         <v>132</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="1">
         <v>182</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R32" s="1">
+        <v>33</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="T32" s="1">
+        <v>84</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V32" s="1">
+        <v>154</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="X32" s="1">
+        <v>155</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -3039,32 +3817,56 @@
       <c r="F33" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>33</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <v>83</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="1">
         <v>133</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="1">
         <v>183</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R33" s="1">
+        <v>59</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="T33" s="1">
+        <v>14</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="V33" s="1">
+        <v>163</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="X33" s="1">
+        <v>148</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -3082,32 +3884,56 @@
       <c r="F34" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>34</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="1">
         <v>84</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="1">
         <v>134</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="1">
         <v>184</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R34" s="1">
+        <v>196</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="T34" s="1">
+        <v>61</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="V34" s="1">
+        <v>44</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="X34" s="1">
+        <v>65</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -3125,32 +3951,56 @@
       <c r="F35" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>35</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <v>85</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="1">
         <v>135</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="1">
         <v>185</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R35" s="1">
+        <v>156</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="T35" s="1">
+        <v>171</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="V35" s="1">
+        <v>126</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="X35" s="1">
+        <v>135</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,32 +4018,56 @@
       <c r="F36" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>36</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="1">
         <v>86</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="1">
         <v>136</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="1">
         <v>186</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R36" s="1">
+        <v>28</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="T36" s="1">
+        <v>185</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="V36" s="1">
+        <v>177</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="X36" s="1">
+        <v>157</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3211,32 +4085,56 @@
       <c r="F37" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <v>37</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="1">
         <v>87</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="1">
         <v>137</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="1">
         <v>187</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R37" s="1">
+        <v>106</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="T37" s="1">
+        <v>172</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="V37" s="1">
+        <v>149</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="X37" s="1">
+        <v>19</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -3254,32 +4152,56 @@
       <c r="F38" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="1">
         <v>38</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="1">
         <v>88</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="1">
         <v>138</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="1">
         <v>188</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R38" s="1">
+        <v>186</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="T38" s="1">
+        <v>58</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="V38" s="1">
+        <v>7</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="X38" s="1">
+        <v>90</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -3297,32 +4219,56 @@
       <c r="F39" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="1">
         <v>39</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="1">
         <v>89</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="1">
         <v>139</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="1">
         <v>189</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R39" s="1">
+        <v>123</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="T39" s="1">
+        <v>121</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="V39" s="1">
+        <v>87</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="X39" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -3340,32 +4286,56 @@
       <c r="F40" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="1">
         <v>40</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="1">
         <v>90</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="1">
         <v>140</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="1">
         <v>190</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R40" s="1">
+        <v>63</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="T40" s="1">
+        <v>132</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V40" s="1">
+        <v>78</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="X40" s="1">
+        <v>133</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -3383,32 +4353,56 @@
       <c r="F41" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>41</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <v>91</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="1">
         <v>141</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="1">
         <v>191</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R41" s="1">
+        <v>23</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="T41" s="1">
+        <v>192</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="V41" s="1">
+        <v>183</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="X41" s="1">
+        <v>137</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -3426,32 +4420,56 @@
       <c r="F42" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="1">
         <v>42</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <v>92</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="1">
         <v>142</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="1">
         <v>192</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R42" s="1">
+        <v>96</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="T42" s="1">
+        <v>82</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="V42" s="1">
+        <v>134</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="X42" s="1">
+        <v>179</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -3469,32 +4487,56 @@
       <c r="F43" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="1">
         <v>43</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="1">
         <v>93</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="1">
         <v>143</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="1">
         <v>193</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R43" s="1">
+        <v>189</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="T43" s="1">
+        <v>12</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="V43" s="1">
+        <v>2</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="X43" s="1">
+        <v>99</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -3512,32 +4554,56 @@
       <c r="F44" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="1">
         <v>44</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="1">
         <v>94</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="1">
         <v>144</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44" s="1">
         <v>194</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R44" s="1">
+        <v>79</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="T44" s="1">
+        <v>66</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="V44" s="1">
+        <v>35</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="X44" s="1">
+        <v>173</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -3555,32 +4621,56 @@
       <c r="F45" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="1">
         <v>45</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="1">
         <v>95</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="1">
         <v>145</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45" s="1">
         <v>195</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R45" s="1">
+        <v>24</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="T45" s="1">
+        <v>62</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="V45" s="1">
+        <v>52</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="X45" s="1">
+        <v>57</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -3598,32 +4688,56 @@
       <c r="F46" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="1">
         <v>46</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="1">
         <v>96</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="1">
         <v>146</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="1">
         <v>196</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R46" s="1">
+        <v>32</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="T46" s="1">
+        <v>147</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="V46" s="1">
+        <v>110</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="X46" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -3641,32 +4755,56 @@
       <c r="F47" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <v>47</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="1">
         <v>97</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="1">
         <v>147</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="1">
         <v>197</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R47" s="1">
+        <v>103</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="T47" s="1">
+        <v>127</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="V47" s="1">
+        <v>16</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="X47" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -3684,32 +4822,56 @@
       <c r="F48" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="1">
         <v>48</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="1">
         <v>98</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48" s="1">
         <v>148</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="1">
         <v>198</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R48" s="1">
+        <v>145</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="T48" s="1">
+        <v>114</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V48" s="1">
+        <v>161</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="X48" s="1">
+        <v>166</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -3727,32 +4889,56 @@
       <c r="F49" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="1">
         <v>49</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="1">
         <v>99</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49" s="1">
         <v>149</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="1">
         <v>199</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R49" s="1">
+        <v>105</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="T49" s="1">
+        <v>175</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="V49" s="1">
+        <v>80</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="X49" s="1">
+        <v>142</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -3770,32 +4956,56 @@
       <c r="F50" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>50</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="1">
         <v>100</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="1">
         <v>150</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50" s="1">
         <v>200</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="R50" s="1">
+        <v>29</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="T50" s="1">
+        <v>39</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="V50" s="1">
+        <v>54</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="X50" s="1">
+        <v>67</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -3814,7 +5024,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -3833,7 +5043,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -3852,7 +5062,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -3871,7 +5081,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -3890,7 +5100,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -3909,7 +5119,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -3928,7 +5138,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -3947,7 +5157,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -3966,7 +5176,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -3985,7 +5195,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -4004,7 +5214,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -4023,7 +5233,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -4042,7 +5252,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -5581,7 +6791,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
@@ -5600,7 +6810,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
@@ -5619,7 +6829,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
@@ -5638,7 +6848,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
@@ -5657,7 +6867,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
@@ -5676,7 +6886,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
@@ -5695,7 +6905,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
@@ -5713,8 +6923,14 @@
       <c r="F151" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R151" s="1">
+        <v>10</v>
+      </c>
+      <c r="S151" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
@@ -5732,8 +6948,14 @@
       <c r="F152" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R152" s="1">
+        <v>159</v>
+      </c>
+      <c r="S152" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
@@ -5751,8 +6973,14 @@
       <c r="F153" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R153" s="1">
+        <v>55</v>
+      </c>
+      <c r="S153" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
@@ -5770,8 +6998,14 @@
       <c r="F154" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R154" s="1">
+        <v>37</v>
+      </c>
+      <c r="S154" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
@@ -5789,8 +7023,14 @@
       <c r="F155" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R155" s="1">
+        <v>71</v>
+      </c>
+      <c r="S155" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
@@ -5808,8 +7048,14 @@
       <c r="F156" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R156" s="1">
+        <v>167</v>
+      </c>
+      <c r="S156" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
@@ -5827,8 +7073,14 @@
       <c r="F157" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R157" s="1">
+        <v>115</v>
+      </c>
+      <c r="S157" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
@@ -5846,8 +7098,14 @@
       <c r="F158" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R158" s="1">
+        <v>1</v>
+      </c>
+      <c r="S158" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
@@ -5865,8 +7123,14 @@
       <c r="F159" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R159" s="1">
+        <v>129</v>
+      </c>
+      <c r="S159" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
@@ -5884,8 +7148,14 @@
       <c r="F160" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R160" s="1">
+        <v>97</v>
+      </c>
+      <c r="S160" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
@@ -5903,8 +7173,14 @@
       <c r="F161" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R161" s="1">
+        <v>100</v>
+      </c>
+      <c r="S161" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -5922,8 +7198,14 @@
       <c r="F162" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R162" s="1">
+        <v>48</v>
+      </c>
+      <c r="S162" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -5941,8 +7223,14 @@
       <c r="F163" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R163" s="1">
+        <v>15</v>
+      </c>
+      <c r="S163" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
@@ -5960,8 +7248,14 @@
       <c r="F164" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R164" s="1">
+        <v>27</v>
+      </c>
+      <c r="S164" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
@@ -5979,8 +7273,14 @@
       <c r="F165" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R165" s="1">
+        <v>47</v>
+      </c>
+      <c r="S165" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
@@ -5998,8 +7298,14 @@
       <c r="F166" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R166" s="1">
+        <v>102</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
@@ -6017,8 +7323,14 @@
       <c r="F167" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R167" s="1">
+        <v>86</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
@@ -6036,8 +7348,14 @@
       <c r="F168" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R168" s="1">
+        <v>11</v>
+      </c>
+      <c r="S168" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
@@ -6055,8 +7373,14 @@
       <c r="F169" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R169" s="1">
+        <v>74</v>
+      </c>
+      <c r="S169" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
@@ -6074,8 +7398,14 @@
       <c r="F170" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R170" s="1">
+        <v>144</v>
+      </c>
+      <c r="S170" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
@@ -6093,8 +7423,14 @@
       <c r="F171" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R171" s="1">
+        <v>170</v>
+      </c>
+      <c r="S171" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
@@ -6112,8 +7448,14 @@
       <c r="F172" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R172" s="1">
+        <v>64</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
@@ -6131,8 +7473,14 @@
       <c r="F173" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R173" s="1">
+        <v>146</v>
+      </c>
+      <c r="S173" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
@@ -6150,8 +7498,14 @@
       <c r="F174" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R174" s="1">
+        <v>193</v>
+      </c>
+      <c r="S174" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
@@ -6169,8 +7523,14 @@
       <c r="F175" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R175" s="1">
+        <v>195</v>
+      </c>
+      <c r="S175" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
@@ -6188,8 +7548,14 @@
       <c r="F176" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R176" s="1">
+        <v>94</v>
+      </c>
+      <c r="S176" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
@@ -6207,8 +7573,14 @@
       <c r="F177" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R177" s="1">
+        <v>68</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
@@ -6226,8 +7598,14 @@
       <c r="F178" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R178" s="1">
+        <v>51</v>
+      </c>
+      <c r="S178" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
@@ -6245,8 +7623,14 @@
       <c r="F179" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R179" s="1">
+        <v>162</v>
+      </c>
+      <c r="S179" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
@@ -6264,8 +7648,14 @@
       <c r="F180" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R180" s="1">
+        <v>197</v>
+      </c>
+      <c r="S180" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
@@ -6283,8 +7673,14 @@
       <c r="F181" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R181" s="1">
+        <v>109</v>
+      </c>
+      <c r="S181" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
@@ -6302,8 +7698,14 @@
       <c r="F182" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R182" s="1">
+        <v>155</v>
+      </c>
+      <c r="S182" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
@@ -6321,8 +7723,14 @@
       <c r="F183" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R183" s="1">
+        <v>148</v>
+      </c>
+      <c r="S183" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
@@ -6340,8 +7748,14 @@
       <c r="F184" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R184" s="1">
+        <v>65</v>
+      </c>
+      <c r="S184" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
@@ -6359,8 +7773,14 @@
       <c r="F185" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R185" s="1">
+        <v>135</v>
+      </c>
+      <c r="S185" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
@@ -6378,8 +7798,14 @@
       <c r="F186" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R186" s="1">
+        <v>157</v>
+      </c>
+      <c r="S186" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
@@ -6397,8 +7823,14 @@
       <c r="F187" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R187" s="1">
+        <v>19</v>
+      </c>
+      <c r="S187" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
@@ -6416,8 +7848,14 @@
       <c r="F188" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R188" s="1">
+        <v>90</v>
+      </c>
+      <c r="S188" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
@@ -6435,8 +7873,14 @@
       <c r="F189" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R189" s="1">
+        <v>6</v>
+      </c>
+      <c r="S189" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
@@ -6454,8 +7898,14 @@
       <c r="F190" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R190" s="1">
+        <v>133</v>
+      </c>
+      <c r="S190" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
@@ -6473,8 +7923,14 @@
       <c r="F191" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R191" s="1">
+        <v>137</v>
+      </c>
+      <c r="S191" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
@@ -6492,8 +7948,14 @@
       <c r="F192" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R192" s="1">
+        <v>179</v>
+      </c>
+      <c r="S192" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
@@ -6511,8 +7973,14 @@
       <c r="F193" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R193" s="1">
+        <v>99</v>
+      </c>
+      <c r="S193" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
@@ -6530,8 +7998,14 @@
       <c r="F194" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R194" s="1">
+        <v>173</v>
+      </c>
+      <c r="S194" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
@@ -6549,8 +8023,14 @@
       <c r="F195" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R195" s="1">
+        <v>57</v>
+      </c>
+      <c r="S195" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
@@ -6568,8 +8048,14 @@
       <c r="F196" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R196" s="1">
+        <v>22</v>
+      </c>
+      <c r="S196" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
@@ -6587,8 +8073,14 @@
       <c r="F197" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R197" s="1">
+        <v>3</v>
+      </c>
+      <c r="S197" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
@@ -6606,8 +8098,14 @@
       <c r="F198" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R198" s="1">
+        <v>166</v>
+      </c>
+      <c r="S198" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
@@ -6625,8 +8123,14 @@
       <c r="F199" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="R199" s="1">
+        <v>142</v>
+      </c>
+      <c r="S199" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
@@ -6644,8 +8148,17 @@
       <c r="F200" s="1" t="s">
         <v>399</v>
       </c>
+      <c r="R200" s="1">
+        <v>67</v>
+      </c>
+      <c r="S200" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R1:S200">
+    <sortCondition ref="S1:S200"/>
+  </sortState>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
